--- a/medicine/Enfance/Wouzit/Wouzit.xlsx
+++ b/medicine/Enfance/Wouzit/Wouzit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Tissot, alias Wouzit, est un auteur-dessinateur français de bande dessinée né à Saint-Nazaire (Loire-Atlantique, France) le 15 décembre 1983. Il vit à Toulouse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wouzit s'investit d'abord dans des fanzines (Bévue et Rien à Voir) ainsi que sur le web (il ouvre son blog BD en 2006)[1], il devient un auteur récurrent des publications de la maison d'édition Manolosanctis. Il commence sa série Darwin aux éditions Poivre &amp; Sel en 2013[2].
-En 2011, il publie  la bande dessinée Grand Rouge, puis « ce récit complet a été, fait rarissime, entièrement repris et redessiné par son auteur »[3] et publié chez Dupuis en 2023.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wouzit s'investit d'abord dans des fanzines (Bévue et Rien à Voir) ainsi que sur le web (il ouvre son blog BD en 2006), il devient un auteur récurrent des publications de la maison d'édition Manolosanctis. Il commence sa série Darwin aux éditions Poivre &amp; Sel en 2013.
+En 2011, il publie  la bande dessinée Grand Rouge, puis « ce récit complet a été, fait rarissime, entièrement repris et redessiné par son auteur » et publié chez Dupuis en 2023.
 Il publie également dans le magazine Kramix (Le Lombard).
 </t>
         </is>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,60 +586,166 @@
           <t>Albums</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Darwin tome 1 - Castel- Les Éditions poivre &amp; sel - 2013[4],[2]
-Le Grand Rouge - Manolosanctis - 2011[5],[6]
-Divins Mortels - Le Moule à Gaufre - 2011[7]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Darwin tome 1 - Castel- Les Éditions poivre &amp; sel - 2013,
+Le Grand Rouge - Manolosanctis - 2011,
+Divins Mortels - Le Moule à Gaufre - 2011
 Série (Presque) seul sur Mars, Christophe Lambert et Wouzit, éd. Milan
  Oups, j'ai raté la fusée !
  58 minutes pour survivre
-Le Grand Rouge[3], Dupuis, 2023 Nouvelle version de sa BD du même titre publiée en 2011[3]
-Albums collectifs
-Ma copine est une extraterrestre - Le moule à Gaufre- 2013
+Le Grand Rouge, Dupuis, 2023 Nouvelle version de sa BD du même titre publiée en 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wouzit</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wouzit</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums collectifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ma copine est une extraterrestre - Le moule à Gaufre- 2013
 Revoilà Popeye - Onapratut - 2012
 Vivre Dessous - Manolosanctis - 2011
 13m28 - Manolosanctis - 2010
-Les Nouveaux Pieds Nickelés - Onapratut - 2010[8]
+Les Nouveaux Pieds Nickelés - Onapratut - 2010
 Le Dico des blogs- Foolstrip - 2009
 Qu'est-ce qu'on mange ? - Onapratut - 2009
-48 pages de BD : Saison 1.3 - Makaka - 2007
-Albums numériques
-Les Autres Gens- saison 2 episode 20/34/49/103/109/130/140/160/175- 2011/2012
-Autoédition
-La dreamteam- Les tounuz - Septembre 2011 avec Thomas Mathieu, dromadaire bleu, Maadiar et Lilla</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+48 pages de BD : Saison 1.3 - Makaka - 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Wouzit</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Wouzit</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums numériques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Autres Gens- saison 2 episode 20/34/49/103/109/130/140/160/175- 2011/2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Wouzit</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wouzit</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autoédition</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La dreamteam- Les tounuz - Septembre 2011 avec Thomas Mathieu, dromadaire bleu, Maadiar et Lilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Wouzit</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wouzit</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix « Jeune Talent » du Festival de bande dessinée de Perros-Guirec 2009[9]
-Nommé au « Prix Révélation Blog » du Festival international de la bande dessinée d'Angoulême 2008, 2009, 2010[10]
-Prix « Découverte Midi-Pyrénées » du Festival BD de Colomiers 2014 (attribué en décembre 2013)[11],[12]</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prix « Jeune Talent » du Festival de bande dessinée de Perros-Guirec 2009
+Nommé au « Prix Révélation Blog » du Festival international de la bande dessinée d'Angoulême 2008, 2009, 2010
+Prix « Découverte Midi-Pyrénées » du Festival BD de Colomiers 2014 (attribué en décembre 2013),</t>
         </is>
       </c>
     </row>
